--- a/medicine/Enfance/Jack_et_la_Grande_Aventure_du_Cochon_de_Noël/Jack_et_la_Grande_Aventure_du_Cochon_de_Noël.xlsx
+++ b/medicine/Enfance/Jack_et_la_Grande_Aventure_du_Cochon_de_Noël/Jack_et_la_Grande_Aventure_du_Cochon_de_Noël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jack_et_la_Grande_Aventure_du_Cochon_de_No%C3%ABl</t>
+          <t>Jack_et_la_Grande_Aventure_du_Cochon_de_Noël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jack et la Grande Aventure du Cochon de Noël (titre original : The Christmas Pig) est un conte de fées pour enfants de l'auteure britannique J. K. Rowling paru en 2021.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jack_et_la_Grande_Aventure_du_Cochon_de_No%C3%ABl</t>
+          <t>Jack_et_la_Grande_Aventure_du_Cochon_de_Noël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jack est un petit garçon très attaché à LC, son cochon en peluche.
 Après le deuxième mariage de sa mère, Jack fait connaissance de sa demi-sœur : Holly. Ils ne s’entendent pas bien et, un jour, Holly jette LC par la fenêtre de la voiture. Jack est désespéré.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jack_et_la_Grande_Aventure_du_Cochon_de_No%C3%ABl</t>
+          <t>Jack_et_la_Grande_Aventure_du_Cochon_de_Noël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Livre audio</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2021, un livre audio de Jack et la Grande Aventure du Cochon de Noël est sorti exclusivement sur Audible.com, avec une distribution complète, dont une narration de Lola Naymark, et les voix de Charlotte Hennequin dans le rôle de Jack et Alexis Tomassian dans le rôle du Cochon de Noël.
 </t>
